--- a/操作手顺.xlsx
+++ b/操作手顺.xlsx
@@ -4,31 +4,286 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="19425" windowHeight="9840" tabRatio="716"/>
   </bookViews>
   <sheets>
-    <sheet name="手顺" sheetId="1" r:id="rId1"/>
-    <sheet name="导工程" sheetId="3" r:id="rId2"/>
-    <sheet name="mvn更新" sheetId="2" r:id="rId3"/>
-    <sheet name="SQL脚本" sheetId="4" r:id="rId4"/>
+    <sheet name="作业内容" sheetId="6" r:id="rId1"/>
+    <sheet name="环境构筑手顺" sheetId="1" r:id="rId2"/>
+    <sheet name="导工程" sheetId="3" r:id="rId3"/>
+    <sheet name="mvn更新" sheetId="2" r:id="rId4"/>
+    <sheet name="SQL脚本" sheetId="4" r:id="rId5"/>
+    <sheet name="启动工程" sheetId="5" r:id="rId6"/>
+    <sheet name="代码结构" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>https://github.com/machao-hyron/skillup.git</t>
   </si>
   <si>
-    <t>1.从git上把代码下下来，导入。  =&gt; 参照【导工程】</t>
-  </si>
-  <si>
-    <t>2.执行maven 更新，下载索要用到的包 =&gt; 参照【mvn更新】</t>
-  </si>
-  <si>
-    <t>3.安装mysql,执行sql脚本，创建表（skillup\study\src\main\resources\dbdump.sql）</t>
+    <t>0.环境构筑(软件下载与安装)</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>JDK1.8</t>
+  </si>
+  <si>
+    <t>mysql server + 客户端（hediSQL 或 workbench 或 a5m2 ）</t>
+  </si>
+  <si>
+    <t>开发工具（STS 或 IDEA）</t>
+  </si>
+  <si>
+    <t>1.git取代码，新建分支（用自己姓名全拼作为分支名）</t>
+  </si>
+  <si>
+    <t>2.工程导入  =&gt; 参照【导工程】(也可以用开发工具自带的git插件取代码)</t>
+  </si>
+  <si>
+    <t>3.执行maven 更新，下载需要用到的包 =&gt; 参照【mvn更新】</t>
+  </si>
+  <si>
+    <t>4.执行sql脚本，创建表</t>
+  </si>
+  <si>
+    <t>脚本在工程目录下（skillup\study\src\main\resources\dbdump.sql）</t>
+  </si>
+  <si>
+    <t>5.启动工程，访问站点URL</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/login</t>
+  </si>
+  <si>
+    <t>6.代码结构说明 =&gt; 参照【代码结构】</t>
+  </si>
+  <si>
+    <t>├─pom.xml</t>
+  </si>
+  <si>
+    <t>Maven 管理依赖jar包的配置文件</t>
+  </si>
+  <si>
+    <t>│</t>
+  </si>
+  <si>
+    <t>├─src</t>
+  </si>
+  <si>
+    <t>│  ├─main</t>
+  </si>
+  <si>
+    <t>│  │  ├─java</t>
+  </si>
+  <si>
+    <t>│  │  │  └─com</t>
+  </si>
+  <si>
+    <t>│  │  │      └─example</t>
+  </si>
+  <si>
+    <t>│  │  │          └─demo</t>
+  </si>
+  <si>
+    <t>│  │  │              │  ServletInitializer.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │  StudyApplication.java</t>
+  </si>
+  <si>
+    <t>Springboot启动类（main方法）</t>
+  </si>
+  <si>
+    <t>│  │  │              │</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─controller</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>│  │  │              │      LoginController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─dto</t>
+  </si>
+  <si>
+    <t>跟画面数据传输用实体类</t>
+  </si>
+  <si>
+    <t>│  │  │              │      LoginDto.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─entity</t>
+  </si>
+  <si>
+    <t>跟DB数据传输用实体类</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TUserInfo.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TUserInfoExample.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─mapper</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TUserInfoMapper.java</t>
+  </si>
+  <si>
+    <t>单表查询Mapper（工具生成）</t>
+  </si>
+  <si>
+    <t>│  │  │              └─service</t>
+  </si>
+  <si>
+    <t>│  │  │                  │  LoginService.java</t>
+  </si>
+  <si>
+    <t>Service接口</t>
+  </si>
+  <si>
+    <t>│  │  │                  │</t>
+  </si>
+  <si>
+    <t>│  │  │                  └─impl</t>
+  </si>
+  <si>
+    <t>Service接口实现类</t>
+  </si>
+  <si>
+    <t>│  │  │                          LoginServiceImpl.java</t>
+  </si>
+  <si>
+    <t>│  │  │</t>
+  </si>
+  <si>
+    <t>│  │  ├─resources</t>
+  </si>
+  <si>
+    <t>│  │  │  │  application.properties</t>
+  </si>
+  <si>
+    <t>Springboot的配置文件（DB链接信息  等）</t>
+  </si>
+  <si>
+    <t>│  │  │  │  dbdump.sql</t>
+  </si>
+  <si>
+    <t>本次练习用的SQL脚本</t>
+  </si>
+  <si>
+    <t>│  │  │  │  mybatis-generator.xml</t>
+  </si>
+  <si>
+    <t>SQL自动生成工具配置</t>
+  </si>
+  <si>
+    <t>│  │  │  │</t>
+  </si>
+  <si>
+    <t>│  │  │  ├─com</t>
+  </si>
+  <si>
+    <t>│  │  │  │  └─example</t>
+  </si>
+  <si>
+    <t>│  │  │  │      └─demo</t>
+  </si>
+  <si>
+    <t>│  │  │  │          └─mapper</t>
+  </si>
+  <si>
+    <t>查询SQL</t>
+  </si>
+  <si>
+    <t>│  │  │  │                  TUserInfoMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │  │  ├─static</t>
+  </si>
+  <si>
+    <t>画面相关的静态资源</t>
+  </si>
+  <si>
+    <t>│  │  │  │  ├─css</t>
+  </si>
+  <si>
+    <t>│  │  │  │  │      common.css</t>
+  </si>
+  <si>
+    <t>│  │  │  │  │      login.css</t>
+  </si>
+  <si>
+    <t>│  │  │  │  │</t>
+  </si>
+  <si>
+    <t>│  │  │  │  ├─font</t>
+  </si>
+  <si>
+    <t>│  │  │  │  ├─img</t>
+  </si>
+  <si>
+    <t>│  │  │  │  └─js</t>
+  </si>
+  <si>
+    <t>│  │  │  └─templates</t>
+  </si>
+  <si>
+    <t>html存放路径</t>
+  </si>
+  <si>
+    <t>│  │  │          login.html</t>
+  </si>
+  <si>
+    <t>│  │  └─webapp</t>
+  </si>
+  <si>
+    <t>│  └─test</t>
+  </si>
+  <si>
+    <t>测试代码</t>
+  </si>
+  <si>
+    <t>│      └─java</t>
+  </si>
+  <si>
+    <t>│          └─com</t>
+  </si>
+  <si>
+    <t>│              └─example</t>
+  </si>
+  <si>
+    <t>│                  └─demo</t>
+  </si>
+  <si>
+    <t>│                          StudyApplicationTests.java</t>
+  </si>
+  <si>
+    <t>└─target</t>
+  </si>
+  <si>
+    <t>编译后代码存放路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └─test-classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -41,7 +296,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,10 +305,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,14 +336,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,12 +449,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -506,48 +760,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,58 +814,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,39 +871,48 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,6 +977,550 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5696585" y="381635"/>
+          <a:ext cx="8729980" cy="4911090"/>
+          <a:chOff x="10164" y="790"/>
+          <a:chExt cx="13702" cy="7580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10164" y="790"/>
+            <a:ext cx="13702" cy="7581"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16349" y="1975"/>
+            <a:ext cx="1203" cy="211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="436880" y="107950"/>
+          <a:ext cx="4020820" cy="5400040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作业内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新规做成数据查询画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实现把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>t_user_info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表中的数据显示到画面上，形式不限（字符串，或者用表格形式显示）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>输入账号密码，点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Submit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>按钮，迁移到该页面</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>功能实现后，截图保存到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Excel(evidence.xlsx)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件里，上传到代码的根目录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有能力的同学可以在新规画面中实现，增删改查功能（数据可以任意追加删除，也可以自己设计表）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="6069965"/>
+          <a:ext cx="5867400" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1303,7 +2107,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1350,7 +2154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1392,6 +2196,385 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="15240000" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10316210" y="5857875"/>
+          <a:ext cx="5495290" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="4724400"/>
+          <a:ext cx="2876550" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44348"/>
+            <a:gd name="adj2" fmla="val 114637"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制台看到这样的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，就说明工程启动了</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1684,59 +2867,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="65.125" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="2.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1" display="http://localhost:8080/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1745,8 +2985,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1764,7 +3004,25 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1773,4 +3031,411 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>